--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3218.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3218.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.373904485419509</v>
+        <v>1.653087377548218</v>
       </c>
       <c r="B1">
-        <v>3.530990775040318</v>
+        <v>1.79763388633728</v>
       </c>
       <c r="C1">
-        <v>5.345186032895791</v>
+        <v>2.039255380630493</v>
       </c>
       <c r="D1">
-        <v>2.035665592994531</v>
+        <v>2.578201532363892</v>
       </c>
       <c r="E1">
-        <v>1.262829743369573</v>
+        <v>1.728454113006592</v>
       </c>
     </row>
   </sheetData>
